--- a/output.xlsx
+++ b/output.xlsx
@@ -118,10 +118,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -120,8 +120,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -449,9 +449,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691392CE-D83E-CD40-AF29-97ADAA44F367}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="20"/>
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
